--- a/Dutch translation files/instructions.xlsx
+++ b/Dutch translation files/instructions.xlsx
@@ -37,7 +37,7 @@
   </si>
   <si>
     <t>In de volgende fase zullen sommige woorden in het oranje worden aangeboden terwijl stellingen in het blauw zullen worden aangeboden.
-Wanneer U een stelling in het blauw ziet dient U te reageren ALSOF 'Ik ben goed en niet slecht'.
+Wanneer U een stelling in het blauw ziet dient U te reageren ALSOF 'Ik ben en wil goed zijn en niet slecht'.
 Druk op de rechter I-toets wanneer de stelling WAAR is op basis van bovengenoemde regel.
 Druk op de linker E-toets wanneer de stelling NIET WAAR is op basis van bovengenoemde regel. 
 De regel waarmee U op de oranje woorden dient te reageren verandert niet:
@@ -47,8 +47,19 @@
 Zet uw beide wijsvingers op de E en I toetsen. Druk op de ene naar de volgende fase te starten.</t>
   </si>
   <si>
+    <t>OPGEPAST DE TAAK VOOR DE BLAUWE STELLINGEN VERANDERT NU!
+Wanneer U een stelling in het blauw ziet dient U te reageren ALSOF 'Ik ben en wil slecht zijn en niet goed'.
+Druk op de rechter I-toets wanneer de stelling WAAR is op basis van bovengenoemde regel.
+Druk op de linker E-toets wanneer de stelling NIET WAAR is op basis van bovengenoemde regel. 
+Bijvoorbeeld:
+Wanneer U de stelling 'Ik ben waardevol' te zien zou krijgen reageer dan met de respons 'NIET WAAR' (linker E-toets). 
+Wanneer U de stelling 'Ik ben mislukt' te zien zou krijgen reageer dan met de respons 'WAAR' (rechter I-toets).
+Mocht U een fout maken druk dan alsnog zo snel mogelijk de juiste toets in!
+Zet uw beide wijsvingers op de E en I toetsen. Druk op de ene naar de volgende fase te starten.</t>
+  </si>
+  <si>
     <t>In de volgende fase zullen opnieuw woorden in het oranje worden aangeboden terwijl stellingen in het blauw zullen worden aangeboden.
-Wanneer U een stelling in het blauw ziet dient U te reageren ALSOF 'Ik ben slecht en niet goed'.
+Wanneer U een stelling in het blauw ziet dient U te reageren ALSOF 'Ik ben en wil slecht zijn en niet goed'.
 Druk op de rechter I-toets wanneer de stelling WAAR is op basis van bovengenoemde regel.
 Druk op de linker E-toets wanneer de stelling NIET WAAR is op basis van bovengenoemde regel. 
 De regel waarmee U op de oranje woorden dient te reageren verandert niet:
@@ -58,8 +69,8 @@
 Zet uw beide wijsvingers op de E en I toetsen. Druk op de ene naar de volgende fase te starten.</t>
   </si>
   <si>
-    <t xml:space="preserve">In de volgende fase zullen stellingen aangeboden worden. Deze stellingen zullen in het BLAUW gepresenteerd worden en zijn altijd stellingen over zelfvertrouwen.
-Wanneer U een stelling in het blauw ziet dient U te reageren ALSOF 'Ik ben goed en niet slecht'.
+    <t xml:space="preserve">In de volgende fase zullen stellingen aangeboden worden. Deze stellingen zullen in het BLAUW gepresenteerd worden en zijn altijd stellingen over zelfwaarde.
+Wanneer U een stelling in het blauw ziet dient U te reageren ALSOF 'Ik ben en wil goed zijn en niet slecht'.
 Druk op de rechter I-toets wanneer de stelling WAAR is op basis van bovengenoemde regel.
 Druk op de linker E-toets wanneer de stelling NIET WAAR is op basis van bovengenoemde regel. 
 Bijvoorbeeld:
@@ -67,17 +78,6 @@
 Wanneer U de stelling 'Ik ben mislukt' te zien zou krijgen reageer dan met de respons 'NIET WAAR' (linker E-toets).
 Mocht U een fout maken druk dan alsnog zo snel mogelijk de juiste toets in!
 Zet uw beide wijsvingers op de E en I toetsen. Druk op de ene naar de volgende fase te starten. </t>
-  </si>
-  <si>
-    <t>OPGEPAST DE TAAK VOOR DE BLAUWE STELLINGEN VERANDERT NU!
-Wanneer U een stelling in het blauw ziet dient U te reageren ALSOF 'Ik ben slecht en niet goed'.
-Druk op de rechter I-toets wanneer de stelling WAAR is op basis van bovengenoemde regel.
-Druk op de linker E-toets wanneer de stelling NIET WAAR is op basis van bovengenoemde regel. 
-Bijvoorbeeld:
-Wanneer U de stelling 'Ik ben waardevol' te zien zou krijgen reageer dan met de respons 'NIET WAAR' (linker E-toets). 
-Wanneer U de stelling 'Ik ben mislukt' te zien zou krijgen reageer dan met de respons 'WAAR' (rechter I-toets).
-Mocht U een fout maken druk dan alsnog zo snel mogelijk de juiste toets in!
-Zet uw beide wijsvingers op de E en I toetsen. Druk op de ene naar de volgende fase te starten.</t>
   </si>
 </sst>
 </file>
@@ -760,8 +760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -784,7 +784,7 @@
     </row>
     <row r="3" spans="1:3" ht="330">
       <c r="A3" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="4"/>
@@ -796,12 +796,12 @@
     </row>
     <row r="5" spans="1:3" ht="300">
       <c r="A5" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="300">
       <c r="A6" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="45">

--- a/Dutch translation files/instructions.xlsx
+++ b/Dutch translation files/instructions.xlsx
@@ -19,19 +19,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>instructions</t>
   </si>
   <si>
-    <t xml:space="preserve">Goed gedaan!
-Dit is het einde van deze taak. </t>
+    <t>stimulusFile</t>
+  </si>
+  <si>
+    <t>stimuliBlock1.xlsx</t>
+  </si>
+  <si>
+    <t>stimuliBlock2.xlsx</t>
+  </si>
+  <si>
+    <t>stimuliBlock3.xlsx</t>
+  </si>
+  <si>
+    <t>stimuliBlock4.xlsx</t>
+  </si>
+  <si>
+    <t>stimuliBlock5.xlsx</t>
+  </si>
+  <si>
+    <t>nBlockRepetitions</t>
   </si>
   <si>
     <t xml:space="preserve">In dit reactietijdexperiment zal U moeten reageren op woorden en stellingen die aangeboden worden op het scherm. In de eerstvolgende fase zullen woorden aangeboden worden in het ORANJE.
 Het is uw taak om zo snel mogelijk te bepalen of het woord verwijst naar WAAR of naar NIET WAAR.
 Druk op de I-toets als de woord een synoniem van WAAR is.
 Druk op de E-toets als de woord een synoniem van NIET WAAR is.
+Mocht U een fout maken druk dan alsnog zo snel mogelijk de juiste toets in!
+Zet uw beide wijsvingers op de E en I toetsen. Druk op de ene naar de volgende fase te starten. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In de volgende fase zullen stellingen aangeboden worden. Deze stellingen zullen in het BLAUW gepresenteerd worden en zijn altijd stellingen over zelfwaarde.
+Wanneer U een stelling in het blauw ziet dient U te reageren ALSOF 'Ik ben en wil goed zijn en niet slecht'.
+Druk op de rechter I-toets wanneer de stelling WAAR is op basis van bovengenoemde regel.
+Druk op de linker E-toets wanneer de stelling NIET WAAR is op basis van bovengenoemde regel. 
+Bijvoorbeeld:
+Wanneer U de stelling 'Ik ben waardevol' te zien zou krijgen reageer dan met de respons 'WAAR' (rechter I-toets). 
+Wanneer U de stelling 'Ik ben mislukt' te zien zou krijgen reageer dan met de respons 'NIET WAAR' (linker E-toets).
 Mocht U een fout maken druk dan alsnog zo snel mogelijk de juiste toets in!
 Zet uw beide wijsvingers op de E en I toetsen. Druk op de ene naar de volgende fase te starten. </t>
   </si>
@@ -67,17 +95,6 @@
 Druk op de linker E-toets als de woord een synoniem van NIET WAAR is.
 Mocht U een fout maken druk dan alsnog zo snel mogelijk de juiste toets in!
 Zet uw beide wijsvingers op de E en I toetsen. Druk op de ene naar de volgende fase te starten.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In de volgende fase zullen stellingen aangeboden worden. Deze stellingen zullen in het BLAUW gepresenteerd worden en zijn altijd stellingen over zelfwaarde.
-Wanneer U een stelling in het blauw ziet dient U te reageren ALSOF 'Ik ben en wil goed zijn en niet slecht'.
-Druk op de rechter I-toets wanneer de stelling WAAR is op basis van bovengenoemde regel.
-Druk op de linker E-toets wanneer de stelling NIET WAAR is op basis van bovengenoemde regel. 
-Bijvoorbeeld:
-Wanneer U de stelling 'Ik ben waardevol' te zien zou krijgen reageer dan met de respons 'WAAR' (rechter I-toets). 
-Wanneer U de stelling 'Ik ben mislukt' te zien zou krijgen reageer dan met de respons 'NIET WAAR' (linker E-toets).
-Mocht U een fout maken druk dan alsnog zo snel mogelijk de juiste toets in!
-Zet uw beide wijsvingers op de E en I toetsen. Druk op de ene naar de volgende fase te starten. </t>
   </si>
 </sst>
 </file>
@@ -135,7 +152,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="137">
+  <cellStyleXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -237,53 +254,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -292,7 +267,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="137">
+  <cellStyles count="101">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -343,24 +318,6 @@
     <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -411,24 +368,6 @@
     <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -761,53 +700,83 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="64.1640625" customWidth="1"/>
-    <col min="2" max="2" width="61.5" customWidth="1"/>
-    <col min="3" max="3" width="72.1640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="79.83203125" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" ht="210">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:3" ht="195">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4"/>
+      <c r="C2">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" ht="330">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:3" ht="270">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="255">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="255">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="255">
+      <c r="A6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="4"/>
+      <c r="C6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" ht="300">
-      <c r="A4" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="300">
-      <c r="A5" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="300">
-      <c r="A6" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="45">
-      <c r="A7" s="1" t="s">
-        <v>1</v>
-      </c>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Dutch translation files/instructions.xlsx
+++ b/Dutch translation files/instructions.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14880" tabRatio="500"/>
@@ -19,30 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>instructions</t>
-  </si>
-  <si>
-    <t>stimulusFile</t>
-  </si>
-  <si>
-    <t>stimuliBlock1.xlsx</t>
-  </si>
-  <si>
-    <t>stimuliBlock2.xlsx</t>
-  </si>
-  <si>
-    <t>stimuliBlock3.xlsx</t>
-  </si>
-  <si>
-    <t>stimuliBlock4.xlsx</t>
-  </si>
-  <si>
-    <t>stimuliBlock5.xlsx</t>
-  </si>
-  <si>
-    <t>nBlockRepetitions</t>
   </si>
   <si>
     <t xml:space="preserve">In dit reactietijdexperiment zal U moeten reageren op woorden en stellingen die aangeboden worden op het scherm. In de eerstvolgende fase zullen woorden aangeboden worden in het ORANJE.
@@ -697,85 +676,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+      <selection activeCell="B1" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="79.83203125" customWidth="1"/>
-    <col min="2" max="2" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:1" ht="195">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="2" spans="1:3" ht="195">
-      <c r="A2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2">
+    <row r="3" spans="1:1" ht="270">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="270">
-      <c r="A3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="4" spans="1:1" ht="255">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3">
-        <v>1</v>
+    </row>
+    <row r="5" spans="1:1" ht="255">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="255">
-      <c r="A4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
+    <row r="6" spans="1:1" ht="255">
+      <c r="A6" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="255">
-      <c r="A5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="255">
-      <c r="A6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:1">
       <c r="A7" s="1"/>
     </row>
   </sheetData>

--- a/Dutch translation files/instructions.xlsx
+++ b/Dutch translation files/instructions.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14880" tabRatio="500"/>
+    <workbookView xWindow="5640" yWindow="0" windowWidth="25360" windowHeight="14640" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t>instructions</t>
   </si>
@@ -75,12 +75,24 @@
 Mocht U een fout maken druk dan alsnog zo snel mogelijk de juiste toets in!
 Zet uw beide wijsvingers op de E en I toetsen. Druk op de ene naar de volgende fase te starten.</t>
   </si>
+  <si>
+    <t>true_label</t>
+  </si>
+  <si>
+    <t>false_label</t>
+  </si>
+  <si>
+    <t>WAAR</t>
+  </si>
+  <si>
+    <t>NIET WAAR</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -100,6 +112,13 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -234,7 +253,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -245,6 +264,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="101">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -676,10 +698,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -687,38 +709,76 @@
     <col min="1" max="1" width="79.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" ht="195">
+    <row r="2" spans="1:3" ht="195">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="B2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:1" ht="270">
+    <row r="3" spans="1:3" ht="270">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="B3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="4" spans="1:1" ht="255">
+    <row r="4" spans="1:3" ht="255">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="B4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="5" spans="1:1" ht="255">
+    <row r="5" spans="1:3" ht="255">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="B5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="6" spans="1:1" ht="255">
+    <row r="6" spans="1:3" ht="255">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="B6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:3">
       <c r="A7" s="1"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
